--- a/notebooks/SAMD9L/input/SAMD9L_ATXPC_individuals.xlsx
+++ b/notebooks/SAMD9L/input/SAMD9L_ATXPC_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SAMD9L/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91FFB86-E73E-B840-A469-A9FF0443969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6194472C-EDF7-B046-8F48-BA7339DAB3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="3600" windowWidth="25920" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="8040" windowWidth="31820" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="186">
   <si>
     <t>PMID</t>
   </si>
@@ -358,15 +358,9 @@
     <t>HP:0002850</t>
   </si>
   <si>
-    <t>Decreased circulating IgG level</t>
-  </si>
-  <si>
     <t>HP:0004315</t>
   </si>
   <si>
-    <t>Decreased circulating IgA level</t>
-  </si>
-  <si>
     <t>HP:0002720</t>
   </si>
   <si>
@@ -545,6 +539,45 @@
   </si>
   <si>
     <t>NP_689916.2:p.(His880Gln)</t>
+  </si>
+  <si>
+    <t>PMID:33884299</t>
+  </si>
+  <si>
+    <t>Ataxia-Pancytopenia Syndrome due to a de Novo SAMD9L Mutation</t>
+  </si>
+  <si>
+    <t>Case Presentation</t>
+  </si>
+  <si>
+    <t>Gait ataxia</t>
+  </si>
+  <si>
+    <t>HP:0002066</t>
+  </si>
+  <si>
+    <t>Ataxia</t>
+  </si>
+  <si>
+    <t>HP:0001251</t>
+  </si>
+  <si>
+    <t>Diplopia</t>
+  </si>
+  <si>
+    <t>HP:0000651</t>
+  </si>
+  <si>
+    <t>Slow saccadic eye movements</t>
+  </si>
+  <si>
+    <t>HP:0000514</t>
+  </si>
+  <si>
+    <t>Decreased circulating IgA concentration</t>
+  </si>
+  <si>
+    <t>Decreased circulating IgG concentration</t>
   </si>
 </sst>
 </file>
@@ -627,13 +660,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -941,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AW24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -952,7 +984,7 @@
     <col min="4" max="12" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1055,7 @@
         <v>43</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>17</v>
@@ -1047,49 +1079,61 @@
         <v>46</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AQ1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>146</v>
+      <c r="AU1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1204,7 @@
         <v>59</v>
       </c>
       <c r="X2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y2" t="s">
         <v>27</v>
@@ -1184,49 +1228,61 @@
         <v>62</v>
       </c>
       <c r="AF2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI2" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>66</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO2" t="s">
         <v>67</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>70</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>71</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>111</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV2" t="s">
         <v>113</v>
       </c>
-      <c r="AR2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>147</v>
+      <c r="AW2" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1296,29 +1352,29 @@
       <c r="AE3" t="s">
         <v>79</v>
       </c>
-      <c r="AF3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>80</v>
-      </c>
       <c r="AI3" t="s">
         <v>80</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>80</v>
-      </c>
       <c r="AK3" t="s">
         <v>80</v>
       </c>
+      <c r="AL3" t="s">
+        <v>80</v>
+      </c>
       <c r="AM3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1385,26 +1441,26 @@
       <c r="AD4" t="s">
         <v>88</v>
       </c>
-      <c r="AH4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>26</v>
-      </c>
       <c r="AK4" t="s">
         <v>26</v>
       </c>
+      <c r="AL4" t="s">
+        <v>93</v>
+      </c>
       <c r="AM4" t="s">
         <v>26</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AO4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1462,32 +1518,32 @@
       <c r="AE5" t="s">
         <v>91</v>
       </c>
-      <c r="AF5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>92</v>
-      </c>
       <c r="AI5" t="s">
         <v>92</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>92</v>
-      </c>
       <c r="AK5" t="s">
         <v>92</v>
       </c>
       <c r="AL5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1545,29 +1601,29 @@
       <c r="AE6" t="s">
         <v>101</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>91</v>
       </c>
-      <c r="AH6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM6" t="s">
         <v>100</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AO6" t="s">
         <v>91</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
         <v>101</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AW6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1575,7 +1631,7 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1593,19 +1649,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O7" t="s">
         <v>38</v>
@@ -1617,40 +1673,43 @@
         <v>26</v>
       </c>
       <c r="U7" t="s">
+        <v>128</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="W7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>93</v>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="AS7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1658,7 +1717,7 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1676,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -1685,7 +1744,7 @@
         <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O8" t="s">
         <v>89</v>
@@ -1697,7 +1756,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U8" t="s">
         <v>28</v>
@@ -1711,14 +1770,14 @@
       <c r="AE8" t="s">
         <v>28</v>
       </c>
-      <c r="AO8" t="s">
-        <v>28</v>
-      </c>
       <c r="AS8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1726,7 +1785,7 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1744,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1776,26 +1835,26 @@
       <c r="Z9" t="s">
         <v>93</v>
       </c>
-      <c r="AF9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>26</v>
-      </c>
       <c r="AI9" t="s">
         <v>26</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>26</v>
-      </c>
       <c r="AK9" t="s">
         <v>26</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AL9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -1803,7 +1862,7 @@
         <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -1821,13 +1880,13 @@
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s">
         <v>37</v>
@@ -1854,16 +1913,16 @@
         <v>93</v>
       </c>
       <c r="AE10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -1871,7 +1930,7 @@
         <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -1889,16 +1948,16 @@
         <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
         <v>38</v>
@@ -1916,16 +1975,16 @@
         <v>93</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Z11" t="s">
         <v>28</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AW11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1951,16 +2010,16 @@
         <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N12" t="s">
         <v>96</v>
@@ -1987,49 +2046,49 @@
         <v>28</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z12" t="s">
         <v>28</v>
       </c>
       <c r="AD12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI12" s="3" t="s">
         <v>77</v>
       </c>
       <c r="AK12" t="s">
         <v>77</v>
       </c>
+      <c r="AL12" t="s">
+        <v>93</v>
+      </c>
       <c r="AM12" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="AO12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT12" t="s">
         <v>109</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AU12" t="s">
         <v>109</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AV12" t="s">
         <v>109</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AW12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2037,7 +2096,7 @@
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
         <v>31</v>
@@ -2055,16 +2114,16 @@
         <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
         <v>89</v>
@@ -2076,10 +2135,10 @@
         <v>26</v>
       </c>
       <c r="S13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U13" t="s">
         <v>28</v>
@@ -2091,16 +2150,16 @@
         <v>93</v>
       </c>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Z13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -2108,7 +2167,7 @@
         <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
         <v>31</v>
@@ -2126,7 +2185,7 @@
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
         <v>26</v>
@@ -2135,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
         <v>38</v>
@@ -2155,29 +2214,29 @@
       <c r="AE14" t="s">
         <v>93</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AI14" t="s">
         <v>94</v>
       </c>
-      <c r="AH14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>93</v>
-      </c>
       <c r="AK14" t="s">
         <v>93</v>
       </c>
+      <c r="AL14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>93</v>
+      </c>
       <c r="AO14" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AS14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -2185,7 +2244,7 @@
         <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -2203,7 +2262,7 @@
         <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
         <v>26</v>
@@ -2212,7 +2271,7 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
         <v>38</v>
@@ -2233,19 +2292,19 @@
         <v>28</v>
       </c>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z15" t="s">
         <v>28</v>
       </c>
-      <c r="AO15" t="s">
-        <v>140</v>
-      </c>
       <c r="AS15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2253,7 +2312,7 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
@@ -2271,7 +2330,7 @@
         <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -2280,7 +2339,7 @@
         <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
         <v>38</v>
@@ -2292,7 +2351,7 @@
         <v>26</v>
       </c>
       <c r="T16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U16" t="s">
         <v>28</v>
@@ -2301,45 +2360,45 @@
         <v>28</v>
       </c>
       <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI16" t="s">
         <v>143</v>
       </c>
-      <c r="Z16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>145</v>
-      </c>
       <c r="AK16" t="s">
-        <v>93</v>
+        <v>143</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>143</v>
       </c>
       <c r="AO16" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="AS16" t="s">
         <v>28</v>
       </c>
+      <c r="AW16" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
@@ -2357,19 +2416,19 @@
         <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
         <v>26</v>
@@ -2384,36 +2443,36 @@
         <v>28</v>
       </c>
       <c r="T17" t="s">
+        <v>150</v>
+      </c>
+      <c r="U17" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
         <v>152</v>
-      </c>
-      <c r="U17" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" t="s">
-        <v>154</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -2431,16 +2490,16 @@
         <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
         <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
         <v>26</v>
@@ -2461,24 +2520,24 @@
         <v>28</v>
       </c>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z18" t="s">
         <v>28</v>
       </c>
-      <c r="AO18" t="s">
-        <v>134</v>
+      <c r="AS18" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
@@ -2496,13 +2555,13 @@
         <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s">
         <v>26</v>
@@ -2535,15 +2594,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -2561,13 +2620,13 @@
         <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N20" t="s">
         <v>26</v>
@@ -2594,24 +2653,24 @@
         <v>28</v>
       </c>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Z20" t="s">
         <v>28</v>
       </c>
-      <c r="AO20" t="s">
-        <v>158</v>
+      <c r="AS20" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
@@ -2629,19 +2688,19 @@
         <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
         <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
@@ -2668,21 +2727,21 @@
         <v>28</v>
       </c>
       <c r="Y21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
         <v>31</v>
@@ -2700,7 +2759,7 @@
         <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -2709,7 +2768,7 @@
         <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O22" t="s">
         <v>26</v>
@@ -2739,15 +2798,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
         <v>31</v>
@@ -2771,13 +2830,13 @@
         <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
         <v>26</v>
@@ -2805,6 +2864,80 @@
       </c>
       <c r="Z23" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" t="s">
+        <v>133</v>
+      </c>
+      <c r="O24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
